--- a/backend/storage/app/xlsx/seed_cidades_ce.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ce.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIARENSE</t>
   </si>
   <si>
-    <t>d15ed4bd-4170-438f-9a6c-1c451fd4ab8e</t>
+    <t>933e45a0-c749-468e-90ac-1862a655192d</t>
   </si>
   <si>
     <t>ACARAPE</t>

--- a/backend/storage/app/xlsx/seed_cidades_ce.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ce.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIARENSE</t>
   </si>
   <si>
-    <t>933e45a0-c749-468e-90ac-1862a655192d</t>
+    <t>f524cfa0-10ba-4afc-9d53-9555ea5de456</t>
   </si>
   <si>
     <t>ACARAPE</t>

--- a/backend/storage/app/xlsx/seed_cidades_ce.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ce.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIARENSE</t>
   </si>
   <si>
-    <t>f524cfa0-10ba-4afc-9d53-9555ea5de456</t>
+    <t>f15c8916-d559-4446-83e9-f649abb99fd2</t>
   </si>
   <si>
     <t>ACARAPE</t>

--- a/backend/storage/app/xlsx/seed_cidades_ce.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ce.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIARENSE</t>
   </si>
   <si>
-    <t>f15c8916-d559-4446-83e9-f649abb99fd2</t>
+    <t>cb246e9d-a8c3-4a01-868f-c90a351b2a5c</t>
   </si>
   <si>
     <t>ACARAPE</t>

--- a/backend/storage/app/xlsx/seed_cidades_ce.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ce.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIARENSE</t>
   </si>
   <si>
-    <t>cb246e9d-a8c3-4a01-868f-c90a351b2a5c</t>
+    <t>de26ec7d-381c-4489-9703-8819e9212e1a</t>
   </si>
   <si>
     <t>ACARAPE</t>

--- a/backend/storage/app/xlsx/seed_cidades_ce.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ce.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIARENSE</t>
   </si>
   <si>
-    <t>de26ec7d-381c-4489-9703-8819e9212e1a</t>
+    <t>6ebcd588-c6c4-4601-b933-0a56d39e37dc</t>
   </si>
   <si>
     <t>ACARAPE</t>
